--- a/excel write.xlsx
+++ b/excel write.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>username</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>result</t>
+  </si>
+  <si>
+    <t>hhhh</t>
   </si>
 </sst>
 </file>
@@ -363,15 +366,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -380,6 +383,9 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
